--- a/data/raw/employee_turnover.xlsx
+++ b/data/raw/employee_turnover.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel Oscar\Projects\data-INSCO-hub\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E083318-E052-491E-B6CF-E4F0C3AE0222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E392BB-38DD-443D-B2F7-33FFA0D06DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="59">
   <si>
     <t>andres.reyes@inscomexico.com</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>tiempo_empresa</t>
+  </si>
+  <si>
+    <t>Metrologo Jr.</t>
   </si>
 </sst>
 </file>
@@ -559,7 +562,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K25"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -620,7 +623,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>41</v>
@@ -725,7 +728,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>41</v>
@@ -795,7 +798,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>41</v>
@@ -830,7 +833,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>41</v>
@@ -865,7 +868,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>41</v>
@@ -935,7 +938,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>41</v>
@@ -1005,7 +1008,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>41</v>
@@ -1040,7 +1043,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>41</v>
@@ -1128,7 +1131,7 @@
         <v>5</v>
       </c>
       <c r="I16">
-        <v>228000</v>
+        <v>108000</v>
       </c>
       <c r="J16">
         <v>24</v>
@@ -1180,7 +1183,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>41</v>
@@ -1390,7 +1393,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>41</v>
@@ -1425,7 +1428,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>41</v>

--- a/data/raw/employee_turnover.xlsx
+++ b/data/raw/employee_turnover.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel Oscar\Projects\data-INSCO-hub\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E392BB-38DD-443D-B2F7-33FFA0D06DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29678F3-6663-4B71-A3E1-BAF56B234179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="58">
   <si>
     <t>andres.reyes@inscomexico.com</t>
   </si>
@@ -140,9 +140,6 @@
   </si>
   <si>
     <t>Lider Regional de Sucursal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metrologo </t>
   </si>
   <si>
     <t>Tecnico</t>
@@ -562,7 +559,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -582,37 +579,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -623,10 +620,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>36</v>
@@ -661,7 +658,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>36</v>
@@ -693,10 +690,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>36</v>
@@ -728,10 +725,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>36</v>
@@ -766,7 +763,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>36</v>
@@ -798,10 +795,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>36</v>
@@ -833,10 +830,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>36</v>
@@ -868,10 +865,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>36</v>
@@ -906,7 +903,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>37</v>
@@ -938,10 +935,10 @@
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>36</v>
@@ -976,7 +973,7 @@
         <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>38</v>
@@ -1008,10 +1005,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>36</v>
@@ -1043,10 +1040,10 @@
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>36</v>
@@ -1078,10 +1075,10 @@
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>37</v>
@@ -1116,7 +1113,7 @@
         <v>23</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>36</v>
@@ -1151,7 +1148,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>37</v>
@@ -1183,10 +1180,10 @@
         <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>36</v>
@@ -1221,7 +1218,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>36</v>
@@ -1256,7 +1253,7 @@
         <v>39</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>35</v>
@@ -1291,7 +1288,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>36</v>
@@ -1323,10 +1320,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>36</v>
@@ -1361,7 +1358,7 @@
         <v>31</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>32</v>
@@ -1393,10 +1390,10 @@
         <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>36</v>
@@ -1428,10 +1425,10 @@
         <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>36</v>

--- a/data/raw/employee_turnover.xlsx
+++ b/data/raw/employee_turnover.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel Oscar\Projects\data-INSCO-hub\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29678F3-6663-4B71-A3E1-BAF56B234179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4FF57C-8294-4CC2-84C0-C4205B5B529D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -559,7 +559,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
